--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Concept of new sync objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation design of new sync objects </t>
   </si>
 </sst>
 </file>
@@ -850,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -912,6 +915,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>41426</v>
+      </c>
+      <c r="B5">
+        <v>0.75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Concept of new sync objects</t>
   </si>
   <si>
-    <t xml:space="preserve">Implementation design of new sync objects </t>
+    <t xml:space="preserve">Design of implementation new sync objects </t>
+  </si>
+  <si>
+    <t>Implementation of mutexes</t>
+  </si>
+  <si>
+    <t>Update Manual</t>
   </si>
 </sst>
 </file>
@@ -853,10 +859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -926,6 +932,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>41430</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>41431</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>41432</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>Update Manual</t>
+  </si>
+  <si>
+    <t>Implementation of mutexes: Basically done. No test case implemented yet, no testing done yet</t>
   </si>
 </sst>
 </file>
@@ -859,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -959,10 +962,35 @@
         <v>41432</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>41432</v>
+      </c>
+      <c r="B9">
+        <v>2.25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>41435</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Implementation of mutexes: Basically done. No test case implemented yet, no testing done yet</t>
+  </si>
+  <si>
+    <t>Implementation of tc11_mutex</t>
   </si>
 </sst>
 </file>
@@ -862,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,6 +996,17 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41436</v>
+      </c>
+      <c r="B11">
+        <v>1.5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Implementation of tc11_mutex</t>
+  </si>
+  <si>
+    <t>Implementation of semaphores and first, very preliminary but successfuls tests</t>
   </si>
 </sst>
 </file>
@@ -865,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1007,6 +1010,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>41439</v>
+      </c>
+      <c r="B12">
+        <v>1.5</v>
+      </c>
+      <c r="C12">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Implementation of semaphores and first, very preliminary but successfuls tests</t>
+  </si>
+  <si>
+    <t>Implementation tc12</t>
   </si>
 </sst>
 </file>
@@ -868,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1024,6 +1027,28 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>41440</v>
+      </c>
+      <c r="B13">
+        <v>2.5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>41442</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -871,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1049,6 +1049,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>41443</v>
+      </c>
+      <c r="B15">
+        <v>1.5</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/RTuinOS/doc/effort.R2.xlsx
+++ b/RTuinOS/doc/effort.R2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -55,7 +55,10 @@
     <t>Implementation of semaphores and first, very preliminary but successfuls tests</t>
   </si>
   <si>
-    <t>Implementation tc12</t>
+    <t>Implementation tc12_queue</t>
+  </si>
+  <si>
+    <t>Design and implementation tc13_eventStates</t>
   </si>
 </sst>
 </file>
@@ -871,10 +874,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1054,13 +1057,27 @@
         <v>41443</v>
       </c>
       <c r="B15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>41444</v>
+      </c>
+      <c r="B16">
+        <v>1.5</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
